--- a/Sistemas/CCFN-D010-A13-R00 FORMATO COMPARATIVO DE COTIZACIONES.xlsx
+++ b/Sistemas/CCFN-D010-A13-R00 FORMATO COMPARATIVO DE COTIZACIONES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\GitHub\Formatos\Sistemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Comparativo" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,9 +636,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1201,8 +1198,8 @@
   </sheetPr>
   <dimension ref="C3:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,112 +1218,112 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="41" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="47"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="46"/>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="44" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="49"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="48"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="44" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="51"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="29"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="28"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="32"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="38"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="3:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="3:14" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
@@ -1362,7 +1359,7 @@
       <c r="M10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1382,22 +1379,24 @@
         <v>0</v>
       </c>
       <c r="J11" s="10">
-        <f>H11+I11</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="10"/>
+        <f>(D11*H11)+I11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
       <c r="L11" s="3">
-        <f>K11*1.16</f>
+        <f>K11*0.16</f>
         <v>0</v>
       </c>
       <c r="M11" s="16">
-        <f>J11+L11</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="20"/>
+        <f>(D11*K11)+L11</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2"/>
@@ -1411,25 +1410,25 @@
         <f t="shared" ref="I12:I15" si="0">H12*0.16</f>
         <v>0</v>
       </c>
-      <c r="J12" s="12">
-        <f t="shared" ref="J12:J13" si="1">H12+I12</f>
+      <c r="J12" s="10">
+        <f t="shared" ref="J12:J15" si="1">(D12*H12)+I12</f>
         <v>0</v>
       </c>
       <c r="K12" s="11">
         <v>0</v>
       </c>
-      <c r="L12" s="11">
-        <f>K12*1.16</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="17">
-        <f>J12+L12</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="18"/>
+      <c r="L12" s="3">
+        <f t="shared" ref="L12:L15" si="2">K12*0.16</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="16">
+        <f t="shared" ref="M12:M15" si="3">(D12*K12)+L12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="2"/>
@@ -1451,14 +1450,14 @@
         <v>0</v>
       </c>
       <c r="L13" s="3">
-        <f>K13*1.16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13" s="16">
-        <f>K13+L13</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="19"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="18"/>
     </row>
     <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
@@ -1466,25 +1465,29 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
       <c r="I14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="10">
-        <f>H14+I14</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
       <c r="L14" s="3">
-        <f>K14*1.16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="16">
-        <f>K14+L14</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="19"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" spans="3:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
@@ -1492,71 +1495,75 @@
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
       <c r="I15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="10">
-        <f>H15+I15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="7"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
       <c r="L15" s="3">
-        <f t="shared" ref="L15" si="2">K15*1.16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="16">
-        <f>K15+L15</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="19"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="18"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="G26" s="26" t="s">
+      <c r="D26" s="24"/>
+      <c r="G26" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="26"/>
+      <c r="K26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1578,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
@@ -1588,228 +1595,228 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="41" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="44" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="44" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" s="34" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
